--- a/WGUPS Package File.xlsx
+++ b/WGUPS Package File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teamsage.wgu.edu/sites/pd/assessment/DD/IT/IT Development/NHP1/Supplemental material for the PA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cpstelly\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{03FFAE95-EE39-4864-9336-AD4783A71038}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F78DF2-EC6C-4026-B416-F8C302FD314E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22308" windowHeight="8604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -641,17 +641,17 @@
       <selection activeCell="A4" sqref="A4:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="3.77734375" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="4.21875" customWidth="1"/>
-    <col min="8" max="8" width="39.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -664,7 +664,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -677,7 +677,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -690,7 +690,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -703,7 +703,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -714,7 +714,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
@@ -726,7 +726,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
@@ -752,7 +752,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -776,7 +776,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>2</v>
       </c>
@@ -800,7 +800,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>3</v>
       </c>
@@ -826,7 +826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>4</v>
       </c>
@@ -850,7 +850,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>5</v>
       </c>
@@ -874,7 +874,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>6</v>
       </c>
@@ -900,7 +900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>7</v>
       </c>
@@ -924,7 +924,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>8</v>
       </c>
@@ -948,7 +948,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>9</v>
       </c>
@@ -974,7 +974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>10</v>
       </c>
@@ -998,7 +998,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>11</v>
       </c>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>12</v>
       </c>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>13</v>
       </c>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>14</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>15</v>
       </c>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>16</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>17</v>
       </c>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>18</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>19</v>
       </c>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>20</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>21</v>
       </c>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>22</v>
       </c>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>23</v>
       </c>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>24</v>
       </c>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>25</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>26</v>
       </c>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>27</v>
       </c>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>28</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>29</v>
       </c>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>30</v>
       </c>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>31</v>
       </c>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>32</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>33</v>
       </c>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>34</v>
       </c>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>35</v>
       </c>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>36</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>37</v>
       </c>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>38</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>39</v>
       </c>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>40</v>
       </c>
@@ -1749,6 +1749,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Vendor xmlns="0feec74c-ecc7-44c3-9c64-3623cf89ed41">N/A</Vendor>
@@ -1783,15 +1792,6 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2233,22 +2233,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ACC0CE6-074E-44A2-B54E-38496285A228}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="cf660112-59e0-48e5-9b60-3f2262d4e05d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E77ABB-EDCD-4FE8-A23F-B30F5B1F6DEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2256,6 +2240,40 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ACC0CE6-074E-44A2-B54E-38496285A228}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1f707338-ea0f-4fe5-baee-59b996692b22"/>
+    <ds:schemaRef ds:uri="0feec74c-ecc7-44c3-9c64-3623cf89ed41"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E8A0206-F67A-481E-AE05-AF5EAD7E6628}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E8A0206-F67A-481E-AE05-AF5EAD7E6628}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="0feec74c-ecc7-44c3-9c64-3623cf89ed41"/>
+    <ds:schemaRef ds:uri="1f707338-ea0f-4fe5-baee-59b996692b22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>